--- a/importance_scores/importance_scores_saheart.xlsx
+++ b/importance_scores/importance_scores_saheart.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>features</t>
   </si>
   <si>
-    <t>PFBI FuzzyCMeans</t>
+    <t>PBFI FuzzyCMeans</t>
   </si>
   <si>
     <t>SHAP FuzzyCMeans</t>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>SHAP KMeans</t>
-  </si>
-  <si>
-    <t>PFBI Spectral</t>
-  </si>
-  <si>
-    <t>SHAP Spectral</t>
   </si>
   <si>
     <t>F1</t>
@@ -419,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,19 +435,13 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>0.03149038674626112</v>
@@ -468,12 +456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.03120755408399045</v>
@@ -488,12 +476,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0.04027611328293409</v>
@@ -508,12 +496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0.07624673024083203</v>
@@ -528,12 +516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0.6389781582500611</v>
@@ -548,12 +536,12 @@
         <v>0.4857480182155477</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>0.0003775083258221034</v>
@@ -568,12 +556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0.02865240545734899</v>
@@ -588,12 +576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>0.01620924749025632</v>
@@ -608,12 +596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0.1365618961224937</v>
